--- a/natmiOut/OldD4/LR-pairs_lrc2p/Mfng-Notch1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Mfng-Notch1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.8821850798793</v>
+        <v>15.84401633333333</v>
       </c>
       <c r="H2">
-        <v>14.8821850798793</v>
+        <v>47.532049</v>
       </c>
       <c r="I2">
-        <v>0.745558305865044</v>
+        <v>0.7212145038223592</v>
       </c>
       <c r="J2">
-        <v>0.745558305865044</v>
+        <v>0.7256686596529557</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>53.7368122527561</v>
+        <v>56.01527666666667</v>
       </c>
       <c r="N2">
-        <v>53.7368122527561</v>
+        <v>168.04583</v>
       </c>
       <c r="O2">
-        <v>0.4899202373741286</v>
+        <v>0.4883616647765734</v>
       </c>
       <c r="P2">
-        <v>0.4899202373741286</v>
+        <v>0.5237161609491596</v>
       </c>
       <c r="Q2">
-        <v>799.721185548242</v>
+        <v>887.5069584228522</v>
       </c>
       <c r="R2">
-        <v>799.721185548242</v>
+        <v>7987.56262580567</v>
       </c>
       <c r="S2">
-        <v>0.3652641021856555</v>
+        <v>0.3522135157476977</v>
       </c>
       <c r="T2">
-        <v>0.3652641021856555</v>
+        <v>0.3800444045545683</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.8821850798793</v>
+        <v>15.84401633333333</v>
       </c>
       <c r="H3">
-        <v>14.8821850798793</v>
+        <v>47.532049</v>
       </c>
       <c r="I3">
-        <v>0.745558305865044</v>
+        <v>0.7212145038223592</v>
       </c>
       <c r="J3">
-        <v>0.745558305865044</v>
+        <v>0.7256686596529557</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.078403595828309</v>
+        <v>9.149483999999999</v>
       </c>
       <c r="N3">
-        <v>8.078403595828309</v>
+        <v>27.448452</v>
       </c>
       <c r="O3">
-        <v>0.07365106416540794</v>
+        <v>0.0797685471532371</v>
       </c>
       <c r="P3">
-        <v>0.07365106416540794</v>
+        <v>0.08554331818550501</v>
       </c>
       <c r="Q3">
-        <v>120.2242974630793</v>
+        <v>144.964573937572</v>
       </c>
       <c r="R3">
-        <v>120.2242974630793</v>
+        <v>1304.681165438148</v>
       </c>
       <c r="S3">
-        <v>0.05491116262431919</v>
+        <v>0.05753023315575236</v>
       </c>
       <c r="T3">
-        <v>0.05491116262431919</v>
+        <v>0.06207610504994173</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.8821850798793</v>
+        <v>15.84401633333333</v>
       </c>
       <c r="H4">
-        <v>14.8821850798793</v>
+        <v>47.532049</v>
       </c>
       <c r="I4">
-        <v>0.745558305865044</v>
+        <v>0.7212145038223592</v>
       </c>
       <c r="J4">
-        <v>0.745558305865044</v>
+        <v>0.7256686596529557</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.4870230256977</v>
+        <v>12.129045</v>
       </c>
       <c r="N4">
-        <v>10.4870230256977</v>
+        <v>36.387135</v>
       </c>
       <c r="O4">
-        <v>0.09561052460521154</v>
+        <v>0.1057454494708373</v>
       </c>
       <c r="P4">
-        <v>0.09561052460521154</v>
+        <v>0.1134007945935868</v>
       </c>
       <c r="Q4">
-        <v>156.069817605389</v>
+        <v>192.172787087735</v>
       </c>
       <c r="R4">
-        <v>156.069817605389</v>
+        <v>1729.555083789615</v>
       </c>
       <c r="S4">
-        <v>0.07128322074752962</v>
+        <v>0.07626515187158231</v>
       </c>
       <c r="T4">
-        <v>0.07128322074752962</v>
+        <v>0.08229140261630825</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.8821850798793</v>
+        <v>15.84401633333333</v>
       </c>
       <c r="H5">
-        <v>14.8821850798793</v>
+        <v>47.532049</v>
       </c>
       <c r="I5">
-        <v>0.745558305865044</v>
+        <v>0.7212145038223592</v>
       </c>
       <c r="J5">
-        <v>0.745558305865044</v>
+        <v>0.7256686596529557</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.1757231483377</v>
+        <v>14.177359</v>
       </c>
       <c r="N5">
-        <v>14.1757231483377</v>
+        <v>42.532077</v>
       </c>
       <c r="O5">
-        <v>0.129240521695206</v>
+        <v>0.1236033999184949</v>
       </c>
       <c r="P5">
-        <v>0.129240521695206</v>
+        <v>0.1325515550349214</v>
       </c>
       <c r="Q5">
-        <v>210.9657355346909</v>
+        <v>224.6263075595303</v>
       </c>
       <c r="R5">
-        <v>210.9657355346909</v>
+        <v>2021.636768035773</v>
       </c>
       <c r="S5">
-        <v>0.09635634440419225</v>
+        <v>0.08914456474297394</v>
       </c>
       <c r="T5">
-        <v>0.09635634440419225</v>
+        <v>0.09618850927710643</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.8821850798793</v>
+        <v>15.84401633333333</v>
       </c>
       <c r="H6">
-        <v>14.8821850798793</v>
+        <v>47.532049</v>
       </c>
       <c r="I6">
-        <v>0.745558305865044</v>
+        <v>0.7212145038223592</v>
       </c>
       <c r="J6">
-        <v>0.745558305865044</v>
+        <v>0.7256686596529557</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.2068563485794</v>
+        <v>23.229232</v>
       </c>
       <c r="N6">
-        <v>23.2068563485794</v>
+        <v>46.458464</v>
       </c>
       <c r="O6">
-        <v>0.2115776521600459</v>
+        <v>0.2025209386808572</v>
       </c>
       <c r="P6">
-        <v>0.2115776521600459</v>
+        <v>0.1447881712368271</v>
       </c>
       <c r="Q6">
-        <v>345.3687313017305</v>
+        <v>368.0443312187894</v>
       </c>
       <c r="R6">
-        <v>345.3687313017305</v>
+        <v>2208.265987312736</v>
       </c>
       <c r="S6">
-        <v>0.1577434759033474</v>
+        <v>0.1460610383043529</v>
       </c>
       <c r="T6">
-        <v>0.1577434759033474</v>
+        <v>0.105068238155031</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.04215259465138</v>
+        <v>2.951312666666666</v>
       </c>
       <c r="H7">
-        <v>2.04215259465138</v>
+        <v>8.853937999999999</v>
       </c>
       <c r="I7">
-        <v>0.1023064704956979</v>
+        <v>0.1343427989301267</v>
       </c>
       <c r="J7">
-        <v>0.1023064704956979</v>
+        <v>0.1351724879588164</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>53.7368122527561</v>
+        <v>56.01527666666667</v>
       </c>
       <c r="N7">
-        <v>53.7368122527561</v>
+        <v>168.04583</v>
       </c>
       <c r="O7">
-        <v>0.4899202373741286</v>
+        <v>0.4883616647765734</v>
       </c>
       <c r="P7">
-        <v>0.4899202373741286</v>
+        <v>0.5237161609491596</v>
       </c>
       <c r="Q7">
-        <v>109.7387705702599</v>
+        <v>165.3185955531711</v>
       </c>
       <c r="R7">
-        <v>109.7387705702599</v>
+        <v>1487.86735997854</v>
       </c>
       <c r="S7">
-        <v>0.05012201031016159</v>
+        <v>0.06560787293626115</v>
       </c>
       <c r="T7">
-        <v>0.05012201031016159</v>
+        <v>0.07079201645973783</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>26</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.04215259465138</v>
+        <v>2.951312666666666</v>
       </c>
       <c r="H8">
-        <v>2.04215259465138</v>
+        <v>8.853937999999999</v>
       </c>
       <c r="I8">
-        <v>0.1023064704956979</v>
+        <v>0.1343427989301267</v>
       </c>
       <c r="J8">
-        <v>0.1023064704956979</v>
+        <v>0.1351724879588164</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.078403595828309</v>
+        <v>9.149483999999999</v>
       </c>
       <c r="N8">
-        <v>8.078403595828309</v>
+        <v>27.448452</v>
       </c>
       <c r="O8">
-        <v>0.07365106416540794</v>
+        <v>0.0797685471532371</v>
       </c>
       <c r="P8">
-        <v>0.07365106416540794</v>
+        <v>0.08554331818550501</v>
       </c>
       <c r="Q8">
-        <v>16.49733286386182</v>
+        <v>27.002988022664</v>
       </c>
       <c r="R8">
-        <v>16.49733286386182</v>
+        <v>243.026892203976</v>
       </c>
       <c r="S8">
-        <v>0.007534980423015059</v>
+        <v>0.01071632989115566</v>
       </c>
       <c r="T8">
-        <v>0.007534980423015059</v>
+        <v>0.01156310314738737</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.04215259465138</v>
+        <v>2.951312666666666</v>
       </c>
       <c r="H9">
-        <v>2.04215259465138</v>
+        <v>8.853937999999999</v>
       </c>
       <c r="I9">
-        <v>0.1023064704956979</v>
+        <v>0.1343427989301267</v>
       </c>
       <c r="J9">
-        <v>0.1023064704956979</v>
+        <v>0.1351724879588164</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.4870230256977</v>
+        <v>12.129045</v>
       </c>
       <c r="N9">
-        <v>10.4870230256977</v>
+        <v>36.387135</v>
       </c>
       <c r="O9">
-        <v>0.09561052460521154</v>
+        <v>0.1057454494708373</v>
       </c>
       <c r="P9">
-        <v>0.09561052460521154</v>
+        <v>0.1134007945935868</v>
       </c>
       <c r="Q9">
-        <v>21.41610128209732</v>
+        <v>35.79660414307</v>
       </c>
       <c r="R9">
-        <v>21.41610128209732</v>
+        <v>322.16943728763</v>
       </c>
       <c r="S9">
-        <v>0.009781575314601271</v>
+        <v>0.01420613965603658</v>
       </c>
       <c r="T9">
-        <v>0.009781575314601271</v>
+        <v>0.01532866754172182</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.04215259465138</v>
+        <v>2.951312666666666</v>
       </c>
       <c r="H10">
-        <v>2.04215259465138</v>
+        <v>8.853937999999999</v>
       </c>
       <c r="I10">
-        <v>0.1023064704956979</v>
+        <v>0.1343427989301267</v>
       </c>
       <c r="J10">
-        <v>0.1023064704956979</v>
+        <v>0.1351724879588164</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.1757231483377</v>
+        <v>14.177359</v>
       </c>
       <c r="N10">
-        <v>14.1757231483377</v>
+        <v>42.532077</v>
       </c>
       <c r="O10">
-        <v>0.129240521695206</v>
+        <v>0.1236033999184949</v>
       </c>
       <c r="P10">
-        <v>0.129240521695206</v>
+        <v>0.1325515550349214</v>
       </c>
       <c r="Q10">
-        <v>28.94898980843746</v>
+        <v>41.84181919658067</v>
       </c>
       <c r="R10">
-        <v>28.94898980843746</v>
+        <v>376.576372769226</v>
       </c>
       <c r="S10">
-        <v>0.0132221416196592</v>
+        <v>0.0166052267023304</v>
       </c>
       <c r="T10">
-        <v>0.0132221416196592</v>
+        <v>0.01791732347688031</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.04215259465138</v>
+        <v>2.951312666666666</v>
       </c>
       <c r="H11">
-        <v>2.04215259465138</v>
+        <v>8.853937999999999</v>
       </c>
       <c r="I11">
-        <v>0.1023064704956979</v>
+        <v>0.1343427989301267</v>
       </c>
       <c r="J11">
-        <v>0.1023064704956979</v>
+        <v>0.1351724879588164</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.2068563485794</v>
+        <v>23.229232</v>
       </c>
       <c r="N11">
-        <v>23.2068563485794</v>
+        <v>46.458464</v>
       </c>
       <c r="O11">
-        <v>0.2115776521600459</v>
+        <v>0.2025209386808572</v>
       </c>
       <c r="P11">
-        <v>0.2115776521600459</v>
+        <v>0.1447881712368271</v>
       </c>
       <c r="Q11">
-        <v>47.39194190595327</v>
+        <v>68.55672663853866</v>
       </c>
       <c r="R11">
-        <v>47.39194190595327</v>
+        <v>411.340359831232</v>
       </c>
       <c r="S11">
-        <v>0.02164576282826076</v>
+        <v>0.02720722974434292</v>
       </c>
       <c r="T11">
-        <v>0.02164576282826076</v>
+        <v>0.01957137733308906</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.63438993112451</v>
+        <v>2.768664</v>
       </c>
       <c r="H12">
-        <v>2.63438993112451</v>
+        <v>8.305992</v>
       </c>
       <c r="I12">
-        <v>0.1319760024146299</v>
+        <v>0.1260286906426543</v>
       </c>
       <c r="J12">
-        <v>0.1319760024146299</v>
+        <v>0.1268070324872419</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>53.7368122527561</v>
+        <v>56.01527666666667</v>
       </c>
       <c r="N12">
-        <v>53.7368122527561</v>
+        <v>168.04583</v>
       </c>
       <c r="O12">
-        <v>0.4899202373741286</v>
+        <v>0.4883616647765734</v>
       </c>
       <c r="P12">
-        <v>0.4899202373741286</v>
+        <v>0.5237161609491596</v>
       </c>
       <c r="Q12">
-        <v>141.5637171293889</v>
+        <v>155.08747995704</v>
       </c>
       <c r="R12">
-        <v>141.5637171293889</v>
+        <v>1395.78731961336</v>
       </c>
       <c r="S12">
-        <v>0.06465771443066406</v>
+        <v>0.0615475811718584</v>
       </c>
       <c r="T12">
-        <v>0.06465771443066406</v>
+        <v>0.06641089223557367</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>26</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.63438993112451</v>
+        <v>2.768664</v>
       </c>
       <c r="H13">
-        <v>2.63438993112451</v>
+        <v>8.305992</v>
       </c>
       <c r="I13">
-        <v>0.1319760024146299</v>
+        <v>0.1260286906426543</v>
       </c>
       <c r="J13">
-        <v>0.1319760024146299</v>
+        <v>0.1268070324872419</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.078403595828309</v>
+        <v>9.149483999999999</v>
       </c>
       <c r="N13">
-        <v>8.078403595828309</v>
+        <v>27.448452</v>
       </c>
       <c r="O13">
-        <v>0.07365106416540794</v>
+        <v>0.0797685471532371</v>
       </c>
       <c r="P13">
-        <v>0.07365106416540794</v>
+        <v>0.08554331818550501</v>
       </c>
       <c r="Q13">
-        <v>21.28166509241013</v>
+        <v>25.331846969376</v>
       </c>
       <c r="R13">
-        <v>21.28166509241013</v>
+        <v>227.986622724384</v>
       </c>
       <c r="S13">
-        <v>0.009720173022133941</v>
+        <v>0.0100531255521893</v>
       </c>
       <c r="T13">
-        <v>0.009720173022133941</v>
+        <v>0.0108474943282158</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.63438993112451</v>
+        <v>2.768664</v>
       </c>
       <c r="H14">
-        <v>2.63438993112451</v>
+        <v>8.305992</v>
       </c>
       <c r="I14">
-        <v>0.1319760024146299</v>
+        <v>0.1260286906426543</v>
       </c>
       <c r="J14">
-        <v>0.1319760024146299</v>
+        <v>0.1268070324872419</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.4870230256977</v>
+        <v>12.129045</v>
       </c>
       <c r="N14">
-        <v>10.4870230256977</v>
+        <v>36.387135</v>
       </c>
       <c r="O14">
-        <v>0.09561052460521154</v>
+        <v>0.1057454494708373</v>
       </c>
       <c r="P14">
-        <v>0.09561052460521154</v>
+        <v>0.1134007945935868</v>
       </c>
       <c r="Q14">
-        <v>27.62690786636892</v>
+        <v>33.58125024588</v>
       </c>
       <c r="R14">
-        <v>27.62690786636892</v>
+        <v>302.23125221292</v>
       </c>
       <c r="S14">
-        <v>0.01261829482616143</v>
+        <v>0.01332696053822859</v>
       </c>
       <c r="T14">
-        <v>0.01261829482616143</v>
+        <v>0.014380018244108</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.63438993112451</v>
+        <v>2.768664</v>
       </c>
       <c r="H15">
-        <v>2.63438993112451</v>
+        <v>8.305992</v>
       </c>
       <c r="I15">
-        <v>0.1319760024146299</v>
+        <v>0.1260286906426543</v>
       </c>
       <c r="J15">
-        <v>0.1319760024146299</v>
+        <v>0.1268070324872419</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.1757231483377</v>
+        <v>14.177359</v>
       </c>
       <c r="N15">
-        <v>14.1757231483377</v>
+        <v>42.532077</v>
       </c>
       <c r="O15">
-        <v>0.129240521695206</v>
+        <v>0.1236033999184949</v>
       </c>
       <c r="P15">
-        <v>0.129240521695206</v>
+        <v>0.1325515550349214</v>
       </c>
       <c r="Q15">
-        <v>37.34438232838948</v>
+        <v>39.252343478376</v>
       </c>
       <c r="R15">
-        <v>37.34438232838948</v>
+        <v>353.271091305384</v>
       </c>
       <c r="S15">
-        <v>0.01705664740331454</v>
+        <v>0.01557757465070827</v>
       </c>
       <c r="T15">
-        <v>0.01705664740331454</v>
+        <v>0.01680846934554771</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.63438993112451</v>
+        <v>2.768664</v>
       </c>
       <c r="H16">
-        <v>2.63438993112451</v>
+        <v>8.305992</v>
       </c>
       <c r="I16">
-        <v>0.1319760024146299</v>
+        <v>0.1260286906426543</v>
       </c>
       <c r="J16">
-        <v>0.1319760024146299</v>
+        <v>0.1268070324872419</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>23.2068563485794</v>
+        <v>23.229232</v>
       </c>
       <c r="N16">
-        <v>23.2068563485794</v>
+        <v>46.458464</v>
       </c>
       <c r="O16">
-        <v>0.2115776521600459</v>
+        <v>0.2025209386808572</v>
       </c>
       <c r="P16">
-        <v>0.2115776521600459</v>
+        <v>0.1447881712368271</v>
       </c>
       <c r="Q16">
-        <v>61.13590869775049</v>
+        <v>64.31393838604799</v>
       </c>
       <c r="R16">
-        <v>61.13590869775049</v>
+        <v>385.883630316288</v>
       </c>
       <c r="S16">
-        <v>0.02792317273235595</v>
+        <v>0.02552344872966971</v>
       </c>
       <c r="T16">
-        <v>0.02792317273235595</v>
+        <v>0.01836015833379668</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.402400803493234</v>
+        <v>0.4045285</v>
       </c>
       <c r="H17">
-        <v>0.402400803493234</v>
+        <v>0.809057</v>
       </c>
       <c r="I17">
-        <v>0.02015922122462821</v>
+        <v>0.01841400660485959</v>
       </c>
       <c r="J17">
-        <v>0.02015922122462821</v>
+        <v>0.01235181990098599</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>53.7368122527561</v>
+        <v>56.01527666666667</v>
       </c>
       <c r="N17">
-        <v>53.7368122527561</v>
+        <v>168.04583</v>
       </c>
       <c r="O17">
-        <v>0.4899202373741286</v>
+        <v>0.4883616647765734</v>
       </c>
       <c r="P17">
-        <v>0.4899202373741286</v>
+        <v>0.5237161609491596</v>
       </c>
       <c r="Q17">
-        <v>21.62373642767412</v>
+        <v>22.65977584705167</v>
       </c>
       <c r="R17">
-        <v>21.62373642767412</v>
+        <v>135.95865508231</v>
       </c>
       <c r="S17">
-        <v>0.009876410447647425</v>
+        <v>0.008992694920756049</v>
       </c>
       <c r="T17">
-        <v>0.009876410447647425</v>
+        <v>0.006468847699279814</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>26</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.402400803493234</v>
+        <v>0.4045285</v>
       </c>
       <c r="H18">
-        <v>0.402400803493234</v>
+        <v>0.809057</v>
       </c>
       <c r="I18">
-        <v>0.02015922122462821</v>
+        <v>0.01841400660485959</v>
       </c>
       <c r="J18">
-        <v>0.02015922122462821</v>
+        <v>0.01235181990098599</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.078403595828309</v>
+        <v>9.149483999999999</v>
       </c>
       <c r="N18">
-        <v>8.078403595828309</v>
+        <v>27.448452</v>
       </c>
       <c r="O18">
-        <v>0.07365106416540794</v>
+        <v>0.0797685471532371</v>
       </c>
       <c r="P18">
-        <v>0.07365106416540794</v>
+        <v>0.08554331818550501</v>
       </c>
       <c r="Q18">
-        <v>3.250756097903942</v>
+        <v>3.701227038294</v>
       </c>
       <c r="R18">
-        <v>3.250756097903942</v>
+        <v>22.207362229764</v>
       </c>
       <c r="S18">
-        <v>0.001484748095939746</v>
+        <v>0.001468858554139762</v>
       </c>
       <c r="T18">
-        <v>0.001484748095939746</v>
+        <v>0.001056615659960098</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>21</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.402400803493234</v>
+        <v>0.4045285</v>
       </c>
       <c r="H19">
-        <v>0.402400803493234</v>
+        <v>0.809057</v>
       </c>
       <c r="I19">
-        <v>0.02015922122462821</v>
+        <v>0.01841400660485959</v>
       </c>
       <c r="J19">
-        <v>0.02015922122462821</v>
+        <v>0.01235181990098599</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>10.4870230256977</v>
+        <v>12.129045</v>
       </c>
       <c r="N19">
-        <v>10.4870230256977</v>
+        <v>36.387135</v>
       </c>
       <c r="O19">
-        <v>0.09561052460521154</v>
+        <v>0.1057454494708373</v>
       </c>
       <c r="P19">
-        <v>0.09561052460521154</v>
+        <v>0.1134007945935868</v>
       </c>
       <c r="Q19">
-        <v>4.219986491792801</v>
+        <v>4.9065443802825</v>
       </c>
       <c r="R19">
-        <v>4.219986491792801</v>
+        <v>29.439266281695</v>
       </c>
       <c r="S19">
-        <v>0.001927433716919218</v>
+        <v>0.001947197404989845</v>
       </c>
       <c r="T19">
-        <v>0.001927433716919218</v>
+        <v>0.00140070619144869</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>22</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.402400803493234</v>
+        <v>0.4045285</v>
       </c>
       <c r="H20">
-        <v>0.402400803493234</v>
+        <v>0.809057</v>
       </c>
       <c r="I20">
-        <v>0.02015922122462821</v>
+        <v>0.01841400660485959</v>
       </c>
       <c r="J20">
-        <v>0.02015922122462821</v>
+        <v>0.01235181990098599</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.1757231483377</v>
+        <v>14.177359</v>
       </c>
       <c r="N20">
-        <v>14.1757231483377</v>
+        <v>42.532077</v>
       </c>
       <c r="O20">
-        <v>0.129240521695206</v>
+        <v>0.1236033999184949</v>
       </c>
       <c r="P20">
-        <v>0.129240521695206</v>
+        <v>0.1325515550349214</v>
       </c>
       <c r="Q20">
-        <v>5.704322384988727</v>
+        <v>5.735145770231501</v>
       </c>
       <c r="R20">
-        <v>5.704322384988727</v>
+        <v>34.410874621389</v>
       </c>
       <c r="S20">
-        <v>0.00260538826804002</v>
+        <v>0.002276033822482267</v>
       </c>
       <c r="T20">
-        <v>0.00260538826804002</v>
+        <v>0.001637252935386983</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>23</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.402400803493234</v>
+        <v>0.4045285</v>
       </c>
       <c r="H21">
-        <v>0.402400803493234</v>
+        <v>0.809057</v>
       </c>
       <c r="I21">
-        <v>0.02015922122462821</v>
+        <v>0.01841400660485959</v>
       </c>
       <c r="J21">
-        <v>0.02015922122462821</v>
+        <v>0.01235181990098599</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>23.2068563485794</v>
+        <v>23.229232</v>
       </c>
       <c r="N21">
-        <v>23.2068563485794</v>
+        <v>46.458464</v>
       </c>
       <c r="O21">
-        <v>0.2115776521600459</v>
+        <v>0.2025209386808572</v>
       </c>
       <c r="P21">
-        <v>0.2115776521600459</v>
+        <v>0.1447881712368271</v>
       </c>
       <c r="Q21">
-        <v>9.338457641220408</v>
+        <v>9.396886377112001</v>
       </c>
       <c r="R21">
-        <v>9.338457641220408</v>
+        <v>37.587545508448</v>
       </c>
       <c r="S21">
-        <v>0.004265240696081802</v>
+        <v>0.003729221902491669</v>
       </c>
       <c r="T21">
-        <v>0.004265240696081802</v>
+        <v>0.001788397414910409</v>
       </c>
     </row>
   </sheetData>
